--- a/mx_PGAdmin4_notes_v1.xlsx
+++ b/mx_PGAdmin4_notes_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\pgadmin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\pgadmin\pgadmin4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5356B1-9896-4E72-B742-181251CA8B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4724728B-9784-4E6D-AAF5-1EC337B300D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup Dev Env" sheetId="2" r:id="rId1"/>
@@ -412,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,8 +437,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -968,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -979,14 +978,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
     </row>
@@ -1126,7 +1125,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B39" t="s">
@@ -1134,7 +1133,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1155,7 +1154,7 @@
       <c r="A45" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1194,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA676619-B0F5-438F-B5F6-F68C5447EFDD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1205,7 +1204,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
